--- a/API/Project/uploaded/review.xlsx
+++ b/API/Project/uploaded/review.xlsx
@@ -448,11 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se basa en los nueve anos de educacion basica (seis de primaria y tres de secundaria). Los alumnos que acceden al segundo ciclo de secundaria pueden ir a un centro de orientacion mas academica o a un centro de formacion profesional. Esto se aplica tanto en el sistema islamico como en el no islamico. La ensenanza secundaria superior formal comprende la ensenanza general (sekolah menengah atas, o SMA), la ensenanza profesional (sekolah menengah kejuruan, o SMK), las escuelas secundarias superiores islamicas (madrasah aliyah, o MA) y la ensenanza profesional islamica (madrasah aliyah kejuruan, o MAK). Este capitulo se centra principalmente en la ensenanza secundaria superior academica, mientras que el capitulo 5 trata de la formacion profesional. Se esta trabajando en el desarrollo de colegios comunitarios y vias alternativas de acceso a la ensenanza superior. </t>
+          <t>las mujeres no lloran las mujeres facturan.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/API/Project/uploaded/review.xlsx
+++ b/API/Project/uploaded/review.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>las mujeres no lloran las mujeres facturan.</t>
+          <t>Las mujeres facturan</t>
         </is>
       </c>
       <c r="B2" t="n">
